--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3184320.879752417</v>
+        <v>3259850.549417222</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>216.5267245113899</v>
       </c>
       <c r="Y2" t="n">
-        <v>64.56490377874294</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>88.8349040225292</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.94036353859026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>117.0398582233546</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>169.3819108275734</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>123.8167699816756</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>205.1332020905462</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>35.67003244799113</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>360.4619742408231</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.1271626621475</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>71.41172425543448</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>39.18068128098676</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>38.04427376178253</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527406</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5537603682205</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,13 +1897,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>49.38162151975434</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>118.4928596663685</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.07661650267508</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>64.35126176470149</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>81.46225524143789</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>88.23851788996375</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>51.60930265314076</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>71.66487306809418</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>11.03652190838639</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206821</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>135.6524639302714</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.9898110906269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470134</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.7384857389909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>36.05218673157603</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3797,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>85.70602882978091</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>200.5749791798096</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4034,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20.8153109965569</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670926</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1299.526533804879</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1364.743608328862</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y2" t="n">
-        <v>1299.526533804879</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>261.3917961488083</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V4" t="n">
-        <v>261.3917961488083</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W4" t="n">
-        <v>261.3917961488083</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>261.3917961488083</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>632.3182666762914</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762914</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2076.215407615178</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>1745.152520271607</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>1392.383865001493</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X5" t="n">
-        <v>1018.918106740413</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.918106740413</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791651</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791651</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>555.4725825998845</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>555.4725825998845</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X8" t="n">
-        <v>945.6119145756962</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y8" t="n">
-        <v>555.4725825998845</v>
+        <v>1816.442957727742</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750364</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296044</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6471865296044</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6471865296044</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6471865296044</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6471865296044</v>
+        <v>409.2948950230958</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3691419079764</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1348.264721381358</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1093.580233175471</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>804.16306313851</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X13" t="n">
-        <v>576.1735122404926</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y13" t="n">
-        <v>576.1735122404926</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,13 +5305,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5318,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>932.1883377003199</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>670.8029673508211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>501.8667844229142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>351.7501450105784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>203.8370514281853</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>203.8370514281853</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>203.8370514281853</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>203.8370514281853</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488384</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>898.7925182488384</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>898.7925182488384</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>670.8029673508211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>670.8029673508211</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,31 +5536,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020477</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
         <v>1736.599915964471</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.900558318119</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405893</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980068</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585751</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347413</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609712</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>986.0022165609712</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>696.5850465240105</v>
       </c>
       <c r="X19" t="n">
-        <v>441.900558318119</v>
+        <v>696.5850465240105</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.900558318119</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="20">
@@ -5729,28 +5731,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514088</v>
@@ -5762,13 +5764,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5777,22 +5779,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5817,31 +5819,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>2013.406634128704</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>299.8132378906421</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>299.8132378906421</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>299.8132378906421</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>299.8132378906421</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5919,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>964.135741824786</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>709.4512536188992</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>709.4512536188992</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>481.4617027208818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>481.4617027208818</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5977,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6002,22 +6004,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2786.879505108311</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>3033.644633014775</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M24" t="n">
-        <v>3340.964766294737</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>3670.82739395877</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>4340.29115526143</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.0663679705859</v>
+        <v>607.1380464627246</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1105.636050730797</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>816.5074119443557</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>816.5074119443557</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W25" t="n">
-        <v>816.5074119443557</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X25" t="n">
-        <v>816.5074119443557</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y25" t="n">
-        <v>595.7148328008255</v>
+        <v>788.7865112929643</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6224,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.6944526764913</v>
+        <v>3717.221392895051</v>
       </c>
       <c r="C28" t="n">
-        <v>505.7582697485844</v>
+        <v>3548.285209967144</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6416303362487</v>
+        <v>3548.285209967144</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362487</v>
+        <v>3548.285209967144</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>3548.285209967144</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U28" t="n">
-        <v>1446.785661817356</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V28" t="n">
-        <v>1192.101173611469</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="W28" t="n">
-        <v>902.6840035745087</v>
+        <v>4347.651987766838</v>
       </c>
       <c r="X28" t="n">
-        <v>674.6944526764913</v>
+        <v>4119.662436868821</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.6944526764913</v>
+        <v>3898.869857725291</v>
       </c>
     </row>
     <row r="29">
@@ -6446,28 +6448,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6540,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>316.9584588710876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775516</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3850.59697693176</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C31" t="n">
-        <v>3681.660794003853</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D31" t="n">
-        <v>3531.544154591517</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E31" t="n">
-        <v>3531.544154591517</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>3531.544154591517</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>3531.544154591517</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281177</v>
+        <v>1487.768268630239</v>
       </c>
       <c r="U31" t="n">
-        <v>4326.074044281177</v>
+        <v>1198.639629843798</v>
       </c>
       <c r="V31" t="n">
-        <v>4071.38955607529</v>
+        <v>1198.639629843798</v>
       </c>
       <c r="W31" t="n">
-        <v>4071.38955607529</v>
+        <v>909.222459806837</v>
       </c>
       <c r="X31" t="n">
-        <v>4071.38955607529</v>
+        <v>909.222459806837</v>
       </c>
       <c r="Y31" t="n">
-        <v>3850.59697693176</v>
+        <v>688.4298806633069</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6682,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,25 +6712,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
         <v>2051.878056918008</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>4321.869908593652</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>4152.933725665745</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>4152.933725665745</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>4005.020632083352</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3858.130684585442</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="X34" t="n">
-        <v>441.900558318119</v>
+        <v>4321.869908593652</v>
       </c>
       <c r="Y34" t="n">
-        <v>266.1532743881928</v>
+        <v>4321.869908593652</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6916,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1275.130855347408</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>1009.738445510044</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>781.7488946120263</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,28 +7159,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7193,7 +7195,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7214,10 +7216,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>2032.925401907738</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3811.660159413163</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3811.660159413163</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3811.660159413163</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3663.747065830769</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3663.747065830769</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3495.57174415059</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3495.57174415059</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4549.85945949167</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>4549.85945949167</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>4260.44228945471</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>4032.452738556693</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>3811.660159413163</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.1496160432035</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C43" t="n">
-        <v>631.2134331152967</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>481.0967937029609</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.787631771461</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X43" t="n">
-        <v>981.7980808734433</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y43" t="n">
-        <v>981.7980808734433</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3947.44824554222</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="C46" t="n">
-        <v>3778.512062614313</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="D46" t="n">
-        <v>3778.512062614313</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="E46" t="n">
-        <v>3630.59896903192</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="F46" t="n">
-        <v>3630.59896903192</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368731</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
         <v>4411.546387431056</v>
@@ -7831,25 +7833,25 @@
         <v>4749.779469576118</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576118</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T46" t="n">
-        <v>4525.994054365623</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U46" t="n">
-        <v>4236.865415579181</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V46" t="n">
-        <v>4236.865415579181</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="W46" t="n">
-        <v>3947.44824554222</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="X46" t="n">
-        <v>3947.44824554222</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="Y46" t="n">
-        <v>3947.44824554222</v>
+        <v>3889.283315426964</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,16 +9245,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>306.1147370139967</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,19 +9482,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>253.7371603504733</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>38.86002301949884</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P24" t="n">
-        <v>230.715186377202</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N27" t="n">
-        <v>253.7371603504735</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>29.47535963978214</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10428,16 +10430,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>253.7371603504735</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>19.14409596997035</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>148.2747143566559</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23431,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>247.0566711175906</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>248.4787245748085</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>4.865485096051515</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>117.8651995788735</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>100.0917936857263</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>111.3444315202562</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>102.8955593339263</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>140.0853058169513</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>78.25505057341384</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>234.6280497454366</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>77.24895529944195</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>210.5110391500029</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25081,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>30.84110453310615</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.59484226146787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25360,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>23.7845125976001</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>74.36705873269595</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>60.72793381678827</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25840,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>51.56266414401841</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.6782574668207</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>140.3375291694984</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730532.698480193</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801934</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730532.6984801934</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380333</v>
@@ -26320,13 +26322,13 @@
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="H2" t="n">
         <v>645197.9485672194</v>
@@ -26338,22 +26340,22 @@
         <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="L2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="P2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672193</v>
       </c>
     </row>
     <row r="3">
@@ -26375,19 +26377,19 @@
         <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007533</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007534</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007605</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007481</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007491</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007523</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007524</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007488</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143384.5458558417</v>
+        <v>-143384.5458558415</v>
       </c>
       <c r="C6" t="n">
-        <v>446583.333358703</v>
+        <v>446583.3333587031</v>
       </c>
       <c r="D6" t="n">
-        <v>446583.3333587032</v>
+        <v>446583.3333587033</v>
       </c>
       <c r="E6" t="n">
-        <v>20133.85448559944</v>
+        <v>20133.85448559927</v>
       </c>
       <c r="F6" t="n">
-        <v>545293.8909624951</v>
+        <v>545293.890962495</v>
       </c>
       <c r="G6" t="n">
         <v>545293.8909624954</v>
       </c>
       <c r="H6" t="n">
-        <v>545293.8909624954</v>
+        <v>545293.8909624951</v>
       </c>
       <c r="I6" t="n">
         <v>545293.8909624954</v>
       </c>
       <c r="J6" t="n">
-        <v>368870.6717699023</v>
+        <v>368870.6717699026</v>
       </c>
       <c r="K6" t="n">
-        <v>545293.8909624952</v>
+        <v>545293.8909624954</v>
       </c>
       <c r="L6" t="n">
+        <v>545293.8909624956</v>
+      </c>
+      <c r="M6" t="n">
+        <v>410492.8757286583</v>
+      </c>
+      <c r="N6" t="n">
+        <v>545293.8909624956</v>
+      </c>
+      <c r="O6" t="n">
+        <v>545293.8909624955</v>
+      </c>
+      <c r="P6" t="n">
         <v>545293.8909624954</v>
-      </c>
-      <c r="M6" t="n">
-        <v>410492.875728658</v>
-      </c>
-      <c r="N6" t="n">
-        <v>545293.8909624954</v>
-      </c>
-      <c r="O6" t="n">
-        <v>545293.8909624952</v>
-      </c>
-      <c r="P6" t="n">
-        <v>545293.8909624952</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26741,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>153.2043761670791</v>
       </c>
       <c r="Y2" t="n">
-        <v>321.6730348773107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>197.4469702194485</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.6442898135045</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>237.6431833973284</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>81.84225668071591</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49303227737529</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>47.00444123328182</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>347.0638092154894</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>9.269126437645923</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.7048175197898</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>75.02223839113469</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,16 +28064,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28144,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28758,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.030983629694669e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29287,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29338,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29752,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>8.707735062108396e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31516,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34792,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>354.1326152325991</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>401.6619767334874</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700209</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>438.0694836745878</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206078</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009397</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>321.223725260607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8086013087267</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N27" t="n">
-        <v>586.9317337484864</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>180.0507982277214</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>586.9317337484864</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>301.5077982110785</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>397.5324193126801</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3259850.549417222</v>
+        <v>3252833.534525512</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>165.2346790503161</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>216.5267245113899</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>40.99653269112405</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>88.8349040225292</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>117.0398582233546</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>205.1332020905462</v>
+        <v>174.9442930587126</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.67003244799113</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>311.4936872159399</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>71.41172425543448</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1423,19 +1423,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470133</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>188.4590648403943</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>38.04427376178253</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527406</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056513</v>
       </c>
       <c r="Y19" t="n">
-        <v>118.4928596663685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>64.35126176470149</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>88.23851788996375</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>11.03652190838639</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>135.6524639302714</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>96.84207451769352</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.315822205652</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>57.64843562452451</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>200.5749791798096</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>146.1854691670926</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>205.8417327459711</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.855211652197</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2080.404530622508</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X2" t="n">
-        <v>2028.59438369213</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1638.455051716319</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4406,34 +4406,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073964</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>490.2500993552354</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>490.2500993552354</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.309493689272</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C5" t="n">
-        <v>1328.309493689272</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.048665729205</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1714.909333753394</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.4175770764215</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988822</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.442957727742</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1816.442957727742</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.2948950230958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>409.2948950230958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.2948950230958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>409.2948950230958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>409.2948950230958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.2948950230958</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5041,13 +5041,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028583</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W13" t="n">
-        <v>692.8891689997437</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X13" t="n">
-        <v>464.8996181017263</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.1070389581962</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5260,31 +5260,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5299,10 +5299,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231263</v>
@@ -5314,13 +5314,13 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701559</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020477</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300439</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>549.598437470156</v>
+        <v>644.6755122555226</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020477</v>
+        <v>891.4406401619865</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.623401105981</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,7 +5679,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471189</v>
@@ -5688,37 +5688,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980068</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585751</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557907</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347413</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609712</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609712</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240105</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X19" t="n">
-        <v>696.5850465240105</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5773,10 +5773,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
@@ -5785,13 +5785,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6013,7 +6013,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231263</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>607.1380464627246</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.579090436494</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1009.579090436494</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>788.7865112929643</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3717.221392895051</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3548.285209967144</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3548.285209967144</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3548.285209967144</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3548.285209967144</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4637.069157803799</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4637.069157803799</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4347.651987766838</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4119.662436868821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3898.869857725291</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6475,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,25 +6545,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1487.768268630239</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1198.639629843798</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>1198.639629843798</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>909.222459806837</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X31" t="n">
-        <v>909.222459806837</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>688.4298806633069</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,46 +6691,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6770,34 +6770,34 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4321.869908593652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4152.933725665745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>4152.933725665745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>4005.020632083352</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3858.130684585442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.859459491669</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4549.859459491669</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>4549.859459491669</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>4549.859459491669</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>4549.859459491669</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>4321.869908593652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4321.869908593652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,16 +6925,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6943,13 +6943,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6961,25 +6961,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>195.0373687508853</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514088</v>
@@ -7186,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018224</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>806.1650729342614</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1113.485206214223</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.347833878256</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>1185.240178049213</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W43" t="n">
-        <v>895.8230080122524</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X43" t="n">
-        <v>667.8334571142351</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.040877970705</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3889.283315426964</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C46" t="n">
-        <v>3889.283315426964</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D46" t="n">
-        <v>3889.283315426964</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>3889.283315426964</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>4036.945405494735</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V46" t="n">
-        <v>4036.945405494735</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W46" t="n">
-        <v>3889.283315426964</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X46" t="n">
-        <v>3889.283315426964</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y46" t="n">
-        <v>3889.283315426964</v>
+        <v>573.668597370829</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>306.1147370139973</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503179</v>
       </c>
       <c r="L18" t="n">
-        <v>306.1147370139967</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>253.7371603504733</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208069</v>
+        <v>96.0374492781458</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>148.2747143566559</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>33.08849621799493</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>248.4787245748085</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="Y19" t="n">
-        <v>100.0917936857263</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>102.8955593339263</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>78.25505057341384</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5110391500029</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>30.84110453310615</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.98990566424378</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25845,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>51.56266414401841</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>140.3375291694984</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>12.7429206061237</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730532.6984801934</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.698480193</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="F2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="G2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672195</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672194</v>
       </c>
       <c r="I2" t="n">
         <v>645197.9485672194</v>
@@ -26340,19 +26340,19 @@
         <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="L2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="L2" t="n">
-        <v>645197.9485672197</v>
-      </c>
       <c r="M2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="P2" t="n">
         <v>645197.9485672194</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,37 +26426,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007533</v>
+        <v>7916.731656007607</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007534</v>
+        <v>7916.731656007547</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007605</v>
+        <v>7916.73165600754</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007396</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007479</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.73165600748</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>7916.731656007481</v>
       </c>
-      <c r="J4" t="n">
-        <v>7916.731656007491</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007523</v>
-      </c>
       <c r="M4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007479</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007488</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26478,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143384.5458558415</v>
+        <v>-143384.5458558412</v>
       </c>
       <c r="C6" t="n">
-        <v>446583.3333587031</v>
+        <v>446583.3333587033</v>
       </c>
       <c r="D6" t="n">
         <v>446583.3333587033</v>
       </c>
       <c r="E6" t="n">
-        <v>20133.85448559927</v>
+        <v>19159.26322587764</v>
       </c>
       <c r="F6" t="n">
-        <v>545293.890962495</v>
+        <v>544319.2997027737</v>
       </c>
       <c r="G6" t="n">
-        <v>545293.8909624954</v>
+        <v>544319.2997027735</v>
       </c>
       <c r="H6" t="n">
-        <v>545293.8909624951</v>
+        <v>544319.2997027736</v>
       </c>
       <c r="I6" t="n">
-        <v>545293.8909624954</v>
+        <v>544319.2997027737</v>
       </c>
       <c r="J6" t="n">
-        <v>368870.6717699026</v>
+        <v>367896.0805101807</v>
       </c>
       <c r="K6" t="n">
-        <v>545293.8909624954</v>
+        <v>544319.2997027739</v>
       </c>
       <c r="L6" t="n">
-        <v>545293.8909624956</v>
+        <v>544319.2997027737</v>
       </c>
       <c r="M6" t="n">
-        <v>410492.8757286583</v>
+        <v>409518.2844689366</v>
       </c>
       <c r="N6" t="n">
-        <v>545293.8909624956</v>
+        <v>544319.2997027736</v>
       </c>
       <c r="O6" t="n">
-        <v>545293.8909624955</v>
+        <v>544319.2997027736</v>
       </c>
       <c r="P6" t="n">
-        <v>545293.8909624954</v>
+        <v>544319.2997027739</v>
       </c>
     </row>
   </sheetData>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26749,10 +26749,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26761,22 +26761,22 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>85.98948845797324</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>153.2043761670791</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>104.4245153318072</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>197.4469702194485</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>237.6431833973284</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>47.00444123328182</v>
+        <v>77.19335026511541</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>347.0638092154894</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>16.25857125419498</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28019,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>75.02223839113469</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28143,19 +28143,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.928873612557473e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.030983629694669e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>8.707735062108396e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31992,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
@@ -32241,16 +32241,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946991</v>
@@ -32265,7 +32265,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
         <v>0.2670576580354892</v>
@@ -32311,25 +32311,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458548</v>
@@ -32338,13 +32338,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,19 +32390,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
@@ -32411,22 +32411,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700214</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>384.987089538257</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3724419700209</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504661</v>
@@ -35977,13 +35977,13 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206078</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>564.1615374009397</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
@@ -36451,10 +36451,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>378.4011515192544</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8335596281419</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768312</v>
+        <v>345.2951542341702</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>397.5324193126801</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3252833.534525512</v>
+        <v>3257772.797374544</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>295.94088161429</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>165.2346790503161</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>40.99653269112405</v>
+        <v>62.56386682245608</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>295.9408816142891</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>4.669905662785763</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>129.0246247964037</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>174.9442930587126</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>30.99636303581896</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>311.4936872159399</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1423,19 +1423,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470133</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.70733080350626</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>188.4590648403943</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056513</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
     </row>
     <row r="26">
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.84207451769352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>142.7197497247938</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.315822205652</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.64843562452451</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>205.8417327459711</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4327,55 +4327,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2080.404530622508</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.483574129471</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="D4" t="n">
-        <v>548.5954256477204</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="E4" t="n">
-        <v>400.6823320653273</v>
+        <v>580.2158906240415</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>348.020265289186</v>
       </c>
       <c r="H4" t="n">
         <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.48357412947</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>1662.48357412947</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1662.48357412947</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4564,16 +4564,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2692.432014591167</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2692.432014591167</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2692.432014591167</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2438.670229229258</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4667,28 +4667,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V7" t="n">
-        <v>551.4175770764215</v>
+        <v>184.2708856551156</v>
       </c>
       <c r="W7" t="n">
-        <v>551.4175770764215</v>
+        <v>184.2708856551156</v>
       </c>
       <c r="X7" t="n">
-        <v>551.4175770764215</v>
+        <v>184.2708856551156</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.4175770764215</v>
+        <v>184.2708856551156</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2665.839633406284</v>
       </c>
       <c r="V8" t="n">
-        <v>2382.509002921313</v>
+        <v>2334.776746062713</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.509002921313</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.509002921313</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y8" t="n">
-        <v>2382.509002921313</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4904,22 +4904,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4995,13 +4995,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
         <v>53.94298182036445</v>
@@ -5023,7 +5023,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5035,46 +5035,46 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.29497012173</v>
@@ -5108,28 +5108,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1308.553578799928</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1019.424940013486</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>764.7404518075996</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>475.3232817706389</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>247.3337308726216</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5290,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701559</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020477</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300439</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555226</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619865</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.623401105981</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765184</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706316</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>241.980548233671</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,34 +5731,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5773,10 +5773,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
@@ -5785,13 +5785,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,19 +5819,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
         <v>674.428562457161</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,19 +6056,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6211,13 +6211,13 @@
         <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6235,19 +6235,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6411,22 +6411,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6454,22 +6454,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6654,13 +6654,13 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,19 +6691,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6721,31 +6721,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,19 +6767,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
         <v>674.428562457161</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765191</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706323</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336716</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V37" t="n">
-        <v>933.2366688293934</v>
+        <v>933.2366688293938</v>
       </c>
       <c r="W37" t="n">
-        <v>643.8194987924328</v>
+        <v>643.8194987924333</v>
       </c>
       <c r="X37" t="n">
-        <v>415.8299478944155</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>195.0373687508853</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7195,31 +7195,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701563</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619849</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M39" t="n">
         <v>1198.760773441947</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7374,10 +7374,10 @@
         <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7490,7 +7490,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
         <v>674.428562457161</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7572,10 +7572,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
         <v>779.0639759471194</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352016</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150552</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170379</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735078</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7651,25 +7651,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1009.579090436494</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>781.5895395384766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>573.668597370829</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747161</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139973</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503179</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>96.0374492781458</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>101.713717219425</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>33.08849621799493</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338588</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518768</v>
       </c>
     </row>
     <row r="26">
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>14.74113413690279</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.98990566424378</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.98990566424337</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.3938331833852</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.8451328388531</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25842,7 +25842,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>12.7429206061237</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>730532.698480193</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="H2" t="n">
+        <v>645197.9485672198</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="J2" t="n">
         <v>645197.9485672195</v>
       </c>
-      <c r="I2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672194</v>
-      </c>
       <c r="K2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672198</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="N2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="P2" t="n">
         <v>645197.9485672193</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672194</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,34 +26426,34 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007607</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007547</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.73165600754</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007396</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007479</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="M4" t="n">
         <v>7916.731656007481</v>
       </c>
-      <c r="M4" t="n">
-        <v>7916.731656007479</v>
-      </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007481</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,13 +26499,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143384.5458558412</v>
+        <v>-143384.5458558418</v>
       </c>
       <c r="C6" t="n">
-        <v>446583.3333587033</v>
+        <v>446583.333358703</v>
       </c>
       <c r="D6" t="n">
         <v>446583.3333587033</v>
       </c>
       <c r="E6" t="n">
-        <v>19159.26322587764</v>
+        <v>20036.39535962712</v>
       </c>
       <c r="F6" t="n">
-        <v>544319.2997027737</v>
+        <v>545196.431836523</v>
       </c>
       <c r="G6" t="n">
-        <v>544319.2997027735</v>
+        <v>545196.4318365233</v>
       </c>
       <c r="H6" t="n">
-        <v>544319.2997027736</v>
+        <v>545196.4318365235</v>
       </c>
       <c r="I6" t="n">
-        <v>544319.2997027737</v>
+        <v>545196.4318365235</v>
       </c>
       <c r="J6" t="n">
-        <v>367896.0805101807</v>
+        <v>368773.2126439303</v>
       </c>
       <c r="K6" t="n">
-        <v>544319.2997027739</v>
+        <v>545196.4318365236</v>
       </c>
       <c r="L6" t="n">
-        <v>544319.2997027737</v>
+        <v>545196.4318365233</v>
       </c>
       <c r="M6" t="n">
-        <v>409518.2844689366</v>
+        <v>410395.4166026858</v>
       </c>
       <c r="N6" t="n">
-        <v>544319.2997027736</v>
+        <v>545196.431836523</v>
       </c>
       <c r="O6" t="n">
-        <v>544319.2997027736</v>
+        <v>545196.4318365233</v>
       </c>
       <c r="P6" t="n">
-        <v>544319.2997027739</v>
+        <v>545196.4318365232</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26749,10 +26749,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26773,10 +26773,10 @@
         <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,13 +26971,13 @@
         <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>85.98948845797173</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>85.98948845797324</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>104.4245153318072</v>
+        <v>82.85718120047517</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>85.98948845797264</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>49.8084969120259</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>50.80735538553364</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>77.19335026511541</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>23.48203953899274</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>16.25857125419498</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28143,19 +28143,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.928873612557473e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31220,28 +31220,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33906,13 +33906,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33927,7 +33927,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33982,7 +33982,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34055,10 +34055,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34067,7 +34067,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,13 +34079,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34143,13 +34143,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34164,7 +34164,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34219,7 +34219,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34292,10 +34292,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34304,7 +34304,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,13 +34316,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>54.37527471535621</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700214</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714617</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>384.987089538257</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714617</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.580930408112</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37554,19 +37554,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>345.2951542341702</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056037</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37791,13 +37791,13 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005179</v>
@@ -37870,16 +37870,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056037</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
